--- a/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>WMPN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,91 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42094</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41912</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E8" s="3">
         <v>6800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3200</v>
       </c>
       <c r="G8" s="3">
         <v>3200</v>
       </c>
       <c r="H8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -910,8 +933,8 @@
       <c r="E15" s="3">
         <v>-100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
+      <c r="F15" s="3">
+        <v>-100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -928,8 +951,11 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,19 +964,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1000</v>
       </c>
       <c r="G17" s="3">
         <v>1000</v>
@@ -965,39 +992,45 @@
         <v>1000</v>
       </c>
       <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2200</v>
       </c>
       <c r="G18" s="3">
         <v>2200</v>
       </c>
       <c r="H18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I18" s="3">
         <v>2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2100</v>
       </c>
       <c r="K18" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,42 +1042,46 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>1600</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,22 +1136,25 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>900</v>
       </c>
       <c r="H23" s="3">
         <v>900</v>
@@ -1120,27 +1163,30 @@
         <v>900</v>
       </c>
       <c r="J23" s="3">
+        <v>900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
@@ -1149,13 +1195,16 @@
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,22 +1232,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>700</v>
       </c>
       <c r="F26" s="3">
         <v>700</v>
       </c>
       <c r="G26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H26" s="3">
         <v>600</v>
@@ -1207,27 +1259,30 @@
         <v>600</v>
       </c>
       <c r="J26" s="3">
+        <v>600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>700</v>
       </c>
       <c r="F27" s="3">
         <v>700</v>
       </c>
       <c r="G27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H27" s="3">
         <v>600</v>
@@ -1236,13 +1291,16 @@
         <v>600</v>
       </c>
       <c r="J27" s="3">
+        <v>600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,51 +1424,57 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>700</v>
       </c>
       <c r="F33" s="3">
         <v>700</v>
       </c>
       <c r="G33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H33" s="3">
         <v>600</v>
@@ -1410,13 +1483,16 @@
         <v>600</v>
       </c>
       <c r="J33" s="3">
+        <v>600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,22 +1520,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>700</v>
       </c>
       <c r="F35" s="3">
         <v>700</v>
       </c>
       <c r="G35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H35" s="3">
         <v>600</v>
@@ -1468,47 +1547,53 @@
         <v>600</v>
       </c>
       <c r="J35" s="3">
+        <v>600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42094</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41912</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,46 +1619,50 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E41" s="3">
         <v>23600</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
         <v>17000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>175900</v>
+      </c>
+      <c r="E42" s="3">
         <v>68100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1582,17 +1672,20 @@
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>35600</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,16 +1841,19 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>13500</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+      <c r="E48" s="3">
+        <v>13500</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
@@ -1756,25 +1864,28 @@
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>5900</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>5900</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,17 +1969,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
@@ -1872,17 +1992,20 @@
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>817400</v>
+      </c>
+      <c r="E54" s="3">
         <v>746500</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
         <v>323800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>315300</v>
       </c>
       <c r="H54" s="3">
         <v>315300</v>
       </c>
       <c r="I54" s="3">
+        <v>315300</v>
+      </c>
+      <c r="J54" s="3">
         <v>314100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>311500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,17 +2157,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E59" s="3">
         <v>8200</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2043,17 +2180,20 @@
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,17 +2381,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>602400</v>
+      </c>
+      <c r="E66" s="3">
         <v>649300</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2246,17 +2404,20 @@
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>253600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,17 +2555,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E72" s="3">
         <v>56800</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2404,17 +2578,20 @@
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>49900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E76" s="3">
         <v>97200</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
         <v>59200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>60000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>60500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>59800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,56 +2747,62 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42094</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41912</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>700</v>
       </c>
       <c r="F81" s="3">
         <v>700</v>
       </c>
       <c r="G81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H81" s="3">
         <v>600</v>
@@ -2616,13 +2811,16 @@
         <v>600</v>
       </c>
       <c r="J81" s="3">
+        <v>600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>20800</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>70500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>93300</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>WMPN</t>
   </si>
@@ -667,9 +667,8 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
@@ -699,16 +698,16 @@
         <v>44104</v>
       </c>
       <c r="G7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41912</v>
-      </c>
-      <c r="J7" s="2">
-        <v>41820</v>
       </c>
       <c r="K7" s="2">
         <v>41729</v>
@@ -731,16 +730,16 @@
         <v>6700</v>
       </c>
       <c r="G8" s="3">
-        <v>3200</v>
+        <v>4800</v>
       </c>
       <c r="H8" s="3">
         <v>3200</v>
       </c>
       <c r="I8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J8" s="3">
         <v>3100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3200</v>
       </c>
       <c r="K8" s="3">
         <v>3100</v>
@@ -936,8 +935,8 @@
       <c r="F15" s="3">
         <v>-100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
+      <c r="G15" s="3">
+        <v>-100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -980,7 +979,7 @@
         <v>1500</v>
       </c>
       <c r="G17" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
@@ -1012,16 +1011,16 @@
         <v>5200</v>
       </c>
       <c r="G18" s="3">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="H18" s="3">
         <v>2200</v>
       </c>
       <c r="I18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J18" s="3">
         <v>2100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2200</v>
       </c>
       <c r="K18" s="3">
         <v>2100</v>
@@ -1058,16 +1057,16 @@
         <v>-4400</v>
       </c>
       <c r="G20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1300</v>
       </c>
       <c r="K20" s="3">
         <v>-500</v>
@@ -1154,10 +1153,10 @@
         <v>800</v>
       </c>
       <c r="G23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="3">
         <v>1100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>900</v>
       </c>
       <c r="I23" s="3">
         <v>900</v>
@@ -1186,10 +1185,10 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
@@ -1250,10 +1249,10 @@
         <v>700</v>
       </c>
       <c r="G26" s="3">
+        <v>800</v>
+      </c>
+      <c r="H26" s="3">
         <v>700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>600</v>
       </c>
       <c r="I26" s="3">
         <v>600</v>
@@ -1282,10 +1281,10 @@
         <v>700</v>
       </c>
       <c r="G27" s="3">
+        <v>800</v>
+      </c>
+      <c r="H27" s="3">
         <v>700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>600</v>
       </c>
       <c r="I27" s="3">
         <v>600</v>
@@ -1442,16 +1441,16 @@
         <v>4400</v>
       </c>
       <c r="G32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1300</v>
       </c>
       <c r="K32" s="3">
         <v>500</v>
@@ -1474,10 +1473,10 @@
         <v>700</v>
       </c>
       <c r="G33" s="3">
+        <v>800</v>
+      </c>
+      <c r="H33" s="3">
         <v>700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>600</v>
       </c>
       <c r="I33" s="3">
         <v>600</v>
@@ -1538,10 +1537,10 @@
         <v>700</v>
       </c>
       <c r="G35" s="3">
+        <v>800</v>
+      </c>
+      <c r="H35" s="3">
         <v>700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>600</v>
       </c>
       <c r="I35" s="3">
         <v>600</v>
@@ -1575,16 +1574,16 @@
         <v>44104</v>
       </c>
       <c r="G38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41912</v>
-      </c>
-      <c r="J38" s="2">
-        <v>41820</v>
       </c>
       <c r="K38" s="2">
         <v>41729</v>
@@ -1634,17 +1633,17 @@
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
         <v>17000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1100</v>
       </c>
       <c r="K41" s="3">
         <v>9300</v>
@@ -1675,8 +1674,8 @@
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
-        <v>35600</v>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
@@ -1867,8 +1866,8 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
-        <v>3100</v>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
@@ -1995,8 +1994,8 @@
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
-        <v>2300</v>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2050,17 +2049,17 @@
       <c r="F54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
         <v>323800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>315300</v>
       </c>
       <c r="I54" s="3">
         <v>315300</v>
       </c>
       <c r="J54" s="3">
-        <v>314100</v>
+        <v>315300</v>
       </c>
       <c r="K54" s="3">
         <v>311500</v>
@@ -2183,8 +2182,8 @@
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
-        <v>3000</v>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
@@ -2407,8 +2406,8 @@
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="3">
-        <v>253600</v>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
@@ -2581,8 +2580,8 @@
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
-        <v>49900</v>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
@@ -2700,17 +2699,17 @@
       <c r="F76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
         <v>59200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>60000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>60500</v>
       </c>
       <c r="K76" s="3">
         <v>59800</v>
@@ -2770,16 +2769,16 @@
         <v>44104</v>
       </c>
       <c r="G80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41912</v>
-      </c>
-      <c r="J80" s="2">
-        <v>41820</v>
       </c>
       <c r="K80" s="2">
         <v>41729</v>
@@ -2802,10 +2801,10 @@
         <v>700</v>
       </c>
       <c r="G81" s="3">
+        <v>800</v>
+      </c>
+      <c r="H81" s="3">
         <v>700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>600</v>
       </c>
       <c r="I81" s="3">
         <v>600</v>

--- a/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>WMPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,105 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
-        <v>42094</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>41912</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G8" s="3">
         <v>6800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N8" s="3">
         <v>3200</v>
       </c>
-      <c r="J8" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +794,14 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +832,14 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -938,14 +985,14 @@
       <c r="G15" s="3">
         <v>-100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+      <c r="H15" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
@@ -953,8 +1000,14 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,40 +1017,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J17" s="3">
         <v>1300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1000</v>
       </c>
       <c r="K17" s="3">
         <v>1000</v>
       </c>
       <c r="L17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,31 +1066,37 @@
         <v>5300</v>
       </c>
       <c r="E18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G18" s="3">
         <v>5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J18" s="3">
         <v>3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2100</v>
       </c>
       <c r="L18" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,52 +1109,60 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="H20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-500</v>
       </c>
       <c r="L20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>1600</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1106,8 +1181,14 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,72 +1219,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1500</v>
       </c>
       <c r="L23" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N23" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>400</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>500</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>700</v>
+      </c>
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>800</v>
       </c>
       <c r="H26" s="3">
         <v>700</v>
       </c>
       <c r="I26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>800</v>
+      </c>
+      <c r="K26" s="3">
         <v>600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1000</v>
       </c>
       <c r="L26" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>700</v>
+      </c>
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>800</v>
       </c>
       <c r="H27" s="3">
         <v>700</v>
       </c>
       <c r="I27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>800</v>
+      </c>
+      <c r="K27" s="3">
         <v>600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1000</v>
       </c>
       <c r="L27" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N27" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F32" s="3">
         <v>3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="H32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>500</v>
       </c>
       <c r="L32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>500</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>700</v>
+      </c>
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>800</v>
       </c>
       <c r="H33" s="3">
         <v>700</v>
       </c>
       <c r="I33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>800</v>
+      </c>
+      <c r="K33" s="3">
         <v>600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1000</v>
       </c>
       <c r="L33" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N33" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>700</v>
+      </c>
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>800</v>
       </c>
       <c r="H35" s="3">
         <v>700</v>
       </c>
       <c r="I35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>800</v>
+      </c>
+      <c r="K35" s="3">
         <v>600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1000</v>
       </c>
       <c r="L35" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N35" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
-        <v>42094</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>41912</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,55 +1792,63 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F41" s="3">
         <v>8700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>23600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>17000</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>8800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>13300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>162400</v>
+      </c>
+      <c r="F42" s="3">
         <v>175900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>68100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1683,8 +1864,14 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1715,8 +1902,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,8 +1940,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1779,8 +1978,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1811,31 +2016,37 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>2600</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1843,8 +2054,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1852,13 +2069,13 @@
         <v>13500</v>
       </c>
       <c r="E48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F48" s="3">
         <v>13500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
+      <c r="G48" s="3">
+        <v>13500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
@@ -1875,23 +2092,29 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F49" s="3">
         <v>5900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5900</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -1907,8 +2130,14 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,23 +2206,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F52" s="3">
         <v>4000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2003,8 +2244,14 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>822900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>822400</v>
+      </c>
+      <c r="F54" s="3">
         <v>817400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>746500</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>323800</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>315300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>315300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>311500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,8 +2356,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2127,8 +2390,14 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2159,23 +2428,29 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F59" s="3">
         <v>9700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +2466,14 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2223,8 +2504,14 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,8 +2542,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2287,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,23 +2694,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>609900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>605500</v>
+      </c>
+      <c r="F66" s="3">
         <v>602400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>649300</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2415,8 +2732,14 @@
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,23 +2900,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>58500</v>
+      </c>
+      <c r="F72" s="3">
         <v>57800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>56800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2589,8 +2938,14 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>216900</v>
+      </c>
+      <c r="F76" s="3">
         <v>215000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>97200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>59200</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>58400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>60000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>59800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
-        <v>42094</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>41912</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>700</v>
+      </c>
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>800</v>
       </c>
       <c r="H81" s="3">
         <v>700</v>
       </c>
       <c r="I81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>800</v>
+      </c>
+      <c r="K81" s="3">
         <v>600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1000</v>
       </c>
       <c r="L81" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,19 +3229,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+      <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>300</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
@@ -2858,14 +3257,20 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,20 +3453,26 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>600</v>
+      </c>
+      <c r="F89" s="3">
         <v>2100</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3050,14 +3485,20 @@
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,20 +3511,22 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3096,14 +3539,20 @@
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,20 +3621,26 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F94" s="3">
         <v>20800</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3192,14 +3653,20 @@
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,13 +3679,15 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-4600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3244,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,20 +3827,26 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F100" s="3">
         <v>70500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3366,14 +3859,20 @@
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,20 +3903,26 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F102" s="3">
         <v>93300</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
@@ -3430,10 +3935,16 @@
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>WMPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,111 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41912</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41729</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E8" s="3">
         <v>6000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6200</v>
       </c>
       <c r="F8" s="3">
         <v>6200</v>
       </c>
       <c r="G8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H8" s="3">
         <v>6800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3100</v>
       </c>
       <c r="M8" s="3">
         <v>3100</v>
       </c>
       <c r="N8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O8" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -994,8 +1016,8 @@
       <c r="J15" s="3">
         <v>-100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
+      <c r="K15" s="3">
+        <v>-100</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1044,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1028,25 +1054,25 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
       </c>
       <c r="L17" s="3">
         <v>1000</v>
@@ -1055,39 +1081,42 @@
         <v>1000</v>
       </c>
       <c r="N17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E18" s="3">
         <v>5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2100</v>
       </c>
       <c r="M18" s="3">
         <v>2100</v>
@@ -1095,8 +1124,11 @@
       <c r="N18" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,52 +1153,55 @@
         <v>-4200</v>
       </c>
       <c r="E20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1187,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>900</v>
       </c>
       <c r="L23" s="3">
         <v>900</v>
       </c>
       <c r="M23" s="3">
+        <v>900</v>
+      </c>
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1387,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1348,37 +1399,40 @@
         <v>1200</v>
       </c>
       <c r="E26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>600</v>
       </c>
       <c r="L26" s="3">
         <v>600</v>
       </c>
       <c r="M26" s="3">
+        <v>600</v>
+      </c>
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1386,37 +1440,40 @@
         <v>1200</v>
       </c>
       <c r="E27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>600</v>
       </c>
       <c r="L27" s="3">
         <v>600</v>
       </c>
       <c r="M27" s="3">
+        <v>600</v>
+      </c>
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,37 +1645,40 @@
         <v>4200</v>
       </c>
       <c r="E32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F32" s="3">
         <v>4600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1614,37 +1686,40 @@
         <v>1200</v>
       </c>
       <c r="E33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>600</v>
       </c>
       <c r="L33" s="3">
         <v>600</v>
       </c>
       <c r="M33" s="3">
+        <v>600</v>
+      </c>
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1756,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1690,80 +1768,86 @@
         <v>1200</v>
       </c>
       <c r="E35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>600</v>
       </c>
       <c r="L35" s="3">
         <v>600</v>
       </c>
       <c r="M35" s="3">
+        <v>600</v>
+      </c>
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41912</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41729</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,64 +1879,68 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="I41" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J41" s="3">
         <v>8800</v>
       </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L41" s="3">
+        <v>8800</v>
+      </c>
+      <c r="M41" s="3">
         <v>13300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E42" s="3">
         <v>123500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>162400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>175900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>68100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1870,8 +1959,11 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2082,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,16 +2123,19 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>2600</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
+      <c r="E47" s="3">
+        <v>2600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
@@ -2048,8 +2152,8 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2060,25 +2164,28 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E48" s="3">
         <v>13500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>13500</v>
       </c>
       <c r="G48" s="3">
         <v>13500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
+      <c r="H48" s="3">
+        <v>13500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -2098,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2107,16 +2217,16 @@
         <v>5700</v>
       </c>
       <c r="E49" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F49" s="3">
         <v>5800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>5900</v>
       </c>
       <c r="G49" s="3">
         <v>5900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>5900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,26 +2328,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>834000</v>
+      </c>
+      <c r="E54" s="3">
         <v>822900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>822400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>817400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>746500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="I54" s="3">
+        <v>323800</v>
+      </c>
+      <c r="J54" s="3">
         <v>315300</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L54" s="3">
         <v>315300</v>
       </c>
       <c r="M54" s="3">
+        <v>315300</v>
+      </c>
+      <c r="N54" s="3">
         <v>311500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,8 +2526,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,26 +2567,29 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E59" s="3">
         <v>12600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2472,8 +2608,11 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,8 +2649,11 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,26 +2854,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>620100</v>
+      </c>
+      <c r="E66" s="3">
         <v>609900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>605500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>602400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>649300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,26 +3076,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E72" s="3">
         <v>55100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>58500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>57800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>56800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>213900</v>
+      </c>
+      <c r="E76" s="3">
         <v>213000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>216900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>215000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>97200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="I76" s="3">
+        <v>59200</v>
+      </c>
+      <c r="J76" s="3">
         <v>58400</v>
       </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L76" s="3">
+        <v>58400</v>
+      </c>
+      <c r="M76" s="3">
         <v>60000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>59800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3322,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41912</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41729</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3186,37 +3380,40 @@
         <v>1200</v>
       </c>
       <c r="E81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>600</v>
       </c>
       <c r="L81" s="3">
         <v>600</v>
       </c>
       <c r="M81" s="3">
+        <v>600</v>
+      </c>
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3245,8 +3443,8 @@
       <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -3263,14 +3461,17 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,23 +3672,26 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3491,14 +3707,17 @@
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,23 +3732,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3545,14 +3765,17 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,23 +3853,26 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>20800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3659,14 +3888,17 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,17 +3913,18 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4600</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,23 +4075,26 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>70500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3865,14 +4110,17 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,23 +4157,26 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>93300</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
@@ -3941,10 +4192,13 @@
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>WMPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,118 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41912</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41729</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E8" s="3">
         <v>6200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6200</v>
       </c>
       <c r="G8" s="3">
         <v>6200</v>
       </c>
       <c r="H8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I8" s="3">
         <v>6800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3100</v>
       </c>
       <c r="N8" s="3">
         <v>3100</v>
       </c>
       <c r="O8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P8" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1019,8 +1042,8 @@
       <c r="K15" s="3">
         <v>-100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
+      <c r="L15" s="3">
+        <v>-100</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,37 +1071,38 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1000</v>
       </c>
       <c r="M17" s="3">
         <v>1000</v>
@@ -1084,42 +1111,45 @@
         <v>1000</v>
       </c>
       <c r="O17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>2100</v>
       </c>
       <c r="N18" s="3">
         <v>2100</v>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,67 +1177,71 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4200</v>
+        <v>-5000</v>
       </c>
       <c r="E20" s="3">
         <v>-4200</v>
       </c>
       <c r="F20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1307,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>900</v>
       </c>
       <c r="M23" s="3">
         <v>900</v>
       </c>
       <c r="N23" s="3">
+        <v>900</v>
+      </c>
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,40 +1363,43 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E26" s="3">
         <v>1200</v>
       </c>
       <c r="F26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>600</v>
       </c>
       <c r="M26" s="3">
         <v>600</v>
       </c>
       <c r="N26" s="3">
+        <v>600</v>
+      </c>
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E27" s="3">
         <v>1200</v>
       </c>
       <c r="F27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>600</v>
       </c>
       <c r="M27" s="3">
         <v>600</v>
       </c>
       <c r="N27" s="3">
+        <v>600</v>
+      </c>
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="E32" s="3">
         <v>4200</v>
       </c>
       <c r="F32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G32" s="3">
         <v>4600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E33" s="3">
         <v>1200</v>
       </c>
       <c r="F33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>600</v>
       </c>
       <c r="M33" s="3">
         <v>600</v>
       </c>
       <c r="N33" s="3">
+        <v>600</v>
+      </c>
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E35" s="3">
         <v>1200</v>
       </c>
       <c r="F35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>600</v>
       </c>
       <c r="M35" s="3">
         <v>600</v>
       </c>
       <c r="N35" s="3">
+        <v>600</v>
+      </c>
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41912</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41729</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,70 +1966,74 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E41" s="3">
         <v>6000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>8800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E42" s="3">
         <v>58300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>123500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>162400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>175900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>68100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,19 +2228,22 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E47" s="3">
         <v>2600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
+      <c r="F47" s="3">
+        <v>2600</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
@@ -2155,8 +2260,8 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2176,19 +2284,19 @@
         <v>13400</v>
       </c>
       <c r="E48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F48" s="3">
         <v>13500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>13500</v>
       </c>
       <c r="H48" s="3">
         <v>13500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+      <c r="I48" s="3">
+        <v>13500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -2208,28 +2316,31 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="E49" s="3">
         <v>5700</v>
       </c>
       <c r="F49" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G49" s="3">
         <v>5800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>5900</v>
       </c>
       <c r="H49" s="3">
         <v>5900</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+      <c r="I49" s="3">
+        <v>5900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,29 +2448,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>869000</v>
+      </c>
+      <c r="E54" s="3">
         <v>834000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>822900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>822400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>817400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>746500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>323800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>315300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
-        <v>315300</v>
+      <c r="L54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M54" s="3">
         <v>315300</v>
       </c>
       <c r="N54" s="3">
+        <v>315300</v>
+      </c>
+      <c r="O54" s="3">
         <v>311500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,29 +2704,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E59" s="3">
         <v>12500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2611,8 +2748,11 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,29 +3012,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>662700</v>
+      </c>
+      <c r="E66" s="3">
         <v>620100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>609900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>605500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>602400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>649300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E72" s="3">
         <v>56300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>55100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>58500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>57800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>56800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>206300</v>
+      </c>
+      <c r="E76" s="3">
         <v>213900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>213000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>216900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>215000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>97200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>59200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>58400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>58400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>60000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>59800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41912</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41729</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E81" s="3">
         <v>1200</v>
       </c>
       <c r="F81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>600</v>
       </c>
       <c r="M81" s="3">
         <v>600</v>
       </c>
       <c r="N81" s="3">
+        <v>600</v>
+      </c>
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3446,8 +3645,8 @@
       <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+      <c r="H83" s="3">
+        <v>300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -3464,14 +3663,17 @@
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,26 +3889,29 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2100</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3710,14 +3927,17 @@
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3742,17 +3963,17 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3768,14 +3989,17 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,26 +4083,29 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-79100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>20800</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3891,14 +4121,17 @@
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,20 +4147,21 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-4600</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,26 +4321,29 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E100" s="3">
         <v>10400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>70500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4113,14 +4359,17 @@
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,26 +4409,29 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-67300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-40800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>93300</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4195,10 +4447,13 @@
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>WMPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,132 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>41912</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>41729</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F8" s="3">
         <v>6600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6000</v>
       </c>
       <c r="G8" s="3">
         <v>6200</v>
       </c>
       <c r="H8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I8" s="3">
         <v>6200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K8" s="3">
         <v>6800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,13 +1053,19 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>-100</v>
@@ -1045,11 +1091,11 @@
       <c r="L15" s="3">
         <v>-100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
+      <c r="M15" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-100</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1000</v>
       </c>
       <c r="O17" s="3">
         <v>1000</v>
       </c>
       <c r="P17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>5500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5400</v>
       </c>
       <c r="H18" s="3">
         <v>5300</v>
       </c>
       <c r="I18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K18" s="3">
         <v>5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2100</v>
       </c>
       <c r="P18" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1244,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-500</v>
       </c>
       <c r="P20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,23 +1305,23 @@
         <v>1300</v>
       </c>
       <c r="E21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1266,8 +1340,14 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1390,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,87 +1405,99 @@
         <v>1000</v>
       </c>
       <c r="E23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>900</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1500</v>
       </c>
       <c r="P23" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R23" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>500</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>500</v>
+      </c>
+      <c r="R24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1000</v>
       </c>
       <c r="P26" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R26" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1000</v>
       </c>
       <c r="P27" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R27" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F32" s="3">
         <v>5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>500</v>
       </c>
       <c r="P32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>500</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1000</v>
       </c>
       <c r="P33" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R33" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1000</v>
       </c>
       <c r="P35" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R35" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>41912</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>41729</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,79 +2139,87 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F41" s="3">
         <v>13200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>11100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>23600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>17000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>8800</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M41" s="3">
         <v>8800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
+        <v>8800</v>
+      </c>
+      <c r="P41" s="3">
         <v>13300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F42" s="3">
         <v>48100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>58300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>123500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>162400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>175900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>68100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2055,8 +2235,14 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2285,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2335,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2385,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,26 +2435,32 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F47" s="3">
         <v>2400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2263,11 +2473,11 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2275,19 +2485,25 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F48" s="3">
         <v>13400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>13400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>13500</v>
       </c>
       <c r="G48" s="3">
         <v>13400</v>
@@ -2296,13 +2512,13 @@
         <v>13500</v>
       </c>
       <c r="I48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J48" s="3">
         <v>13500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
+      <c r="K48" s="3">
+        <v>13500</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
@@ -2319,35 +2535,41 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E49" s="3">
         <v>5600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G49" s="3">
         <v>5700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>5900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2685,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F52" s="3">
         <v>6000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3700</v>
       </c>
       <c r="G52" s="3">
         <v>3600</v>
       </c>
       <c r="H52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J52" s="3">
         <v>4000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>851500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>880000</v>
+      </c>
+      <c r="F54" s="3">
         <v>869000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>834000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>822900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>822400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>817400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>746500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>323800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>315300</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M54" s="3">
         <v>315300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>315300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
+        <v>315300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>311500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2925,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,35 +2975,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F59" s="3">
         <v>18100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2751,8 +3025,14 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +3075,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3125,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3325,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>670300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>687600</v>
+      </c>
+      <c r="F66" s="3">
         <v>662700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>620100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>609900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>605500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>602400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>649300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3595,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>57600</v>
+      </c>
+      <c r="F72" s="3">
         <v>56900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>56300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>55100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>58500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>57800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>56800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3297,8 +3645,14 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>181200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>192300</v>
+      </c>
+      <c r="F76" s="3">
         <v>206300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>213900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>213000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>216900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>215000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>97200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>59200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>58400</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M76" s="3">
         <v>58400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
+        <v>58400</v>
+      </c>
+      <c r="P76" s="3">
         <v>60000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>59800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>41912</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>41729</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>1000</v>
       </c>
       <c r="P81" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R81" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3648,11 +4046,11 @@
       <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3666,14 +4064,20 @@
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,32 +4320,38 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1100</v>
+        <v>2600</v>
       </c>
       <c r="E89" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F89" s="3">
         <v>1100</v>
       </c>
       <c r="G89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3930,14 +4364,20 @@
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,32 +4394,34 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3992,14 +4434,20 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,32 +4540,38 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-40100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-79100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-36900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-16700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>20800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4124,14 +4584,20 @@
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,26 +4614,28 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-200</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-4600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,32 +4810,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F100" s="3">
         <v>36600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>10400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>5200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>70500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4362,14 +4854,20 @@
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,32 +4910,38 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-67300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-40800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-10800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>93300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4450,10 +4954,16 @@
       <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>WMPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,145 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>41912</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>41729</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F8" s="3">
         <v>7100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>6000</v>
       </c>
       <c r="I8" s="3">
         <v>6200</v>
       </c>
       <c r="J8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K8" s="3">
         <v>6200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M8" s="3">
         <v>6800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>-100</v>
@@ -1097,11 +1142,11 @@
       <c r="N15" s="3">
         <v>-100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
+      <c r="O15" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>-100</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1000</v>
       </c>
       <c r="Q17" s="3">
         <v>1000</v>
       </c>
       <c r="R17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F18" s="3">
         <v>6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>5500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5400</v>
       </c>
       <c r="J18" s="3">
         <v>5300</v>
       </c>
       <c r="K18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M18" s="3">
         <v>5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>2100</v>
       </c>
       <c r="R18" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,63 +1311,71 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E20" s="3">
         <v>-4800</v>
       </c>
       <c r="F20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-500</v>
       </c>
       <c r="R20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="E21" s="3">
         <v>1600</v>
@@ -1311,23 +1384,23 @@
         <v>1300</v>
       </c>
       <c r="G21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I21" s="3">
         <v>1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1346,8 +1419,14 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,13 +1475,19 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>1300</v>
@@ -1411,93 +1496,105 @@
         <v>1000</v>
       </c>
       <c r="G23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1500</v>
       </c>
       <c r="R23" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T23" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>500</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>500</v>
+      </c>
+      <c r="T24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
         <v>1100</v>
       </c>
       <c r="F26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1000</v>
       </c>
       <c r="R26" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T26" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
         <v>1100</v>
       </c>
       <c r="F27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1000</v>
       </c>
       <c r="R27" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T27" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E32" s="3">
         <v>4800</v>
       </c>
       <c r="F32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H32" s="3">
         <v>5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>500</v>
       </c>
       <c r="R32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>500</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
         <v>1100</v>
       </c>
       <c r="F33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1000</v>
       </c>
       <c r="R33" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T33" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
         <v>1100</v>
       </c>
       <c r="F35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>1000</v>
       </c>
       <c r="R35" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T35" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>41912</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>41729</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,91 +2312,99 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>13200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>23600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>17000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>8800</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O41" s="3">
         <v>8800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>8800</v>
+      </c>
+      <c r="R41" s="3">
         <v>13300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>9300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F42" s="3">
         <v>14000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>32500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>48100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>58300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>123500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>162400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>175900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>68100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2241,8 +2420,14 @@
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2476,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2532,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2588,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,32 +2644,38 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E47" s="3">
         <v>2000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G47" s="3">
         <v>2300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2479,11 +2688,11 @@
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2491,25 +2700,31 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F48" s="3">
         <v>18300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>18500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>13400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>13400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>13500</v>
       </c>
       <c r="I48" s="3">
         <v>13400</v>
@@ -2518,13 +2733,13 @@
         <v>13500</v>
       </c>
       <c r="K48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="L48" s="3">
         <v>13500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
+      <c r="M48" s="3">
+        <v>13500</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
@@ -2541,41 +2756,47 @@
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E49" s="3">
         <v>5500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G49" s="3">
         <v>5600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>5700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2591,8 +2812,14 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,41 +2924,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F52" s="3">
         <v>9400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3700</v>
       </c>
       <c r="I52" s="3">
         <v>3600</v>
       </c>
       <c r="J52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2741,8 +2980,14 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>862400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>870900</v>
+      </c>
+      <c r="F54" s="3">
         <v>851500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>880000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>869000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>834000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>822900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>822400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>817400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>746500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>323800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>315300</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O54" s="3">
         <v>315300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>315300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
+        <v>315300</v>
+      </c>
+      <c r="S54" s="3">
         <v>311500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3192,14 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,41 +3248,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F59" s="3">
         <v>13100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>18100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>12500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>12600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3031,8 +3304,14 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,8 +3360,14 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,41 +3640,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>688300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>691700</v>
+      </c>
+      <c r="F66" s="3">
         <v>670300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>687600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>662700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>620100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>609900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>605500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>602400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>649300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3381,8 +3696,14 @@
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,41 +3942,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>58900</v>
+      </c>
+      <c r="F72" s="3">
         <v>58200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>57600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>56900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>56300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>55100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>58500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>57800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>56800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3651,8 +3998,14 @@
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>179200</v>
+      </c>
+      <c r="F76" s="3">
         <v>181200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>192300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>206300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>213900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>213000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>216900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>215000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>97200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>59200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>58400</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O76" s="3">
         <v>58400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>58400</v>
+      </c>
+      <c r="R76" s="3">
         <v>60000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>59800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>41912</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>41729</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
         <v>1100</v>
       </c>
       <c r="F81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>1000</v>
       </c>
       <c r="R81" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T81" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,7 +4432,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -4052,11 +4449,11 @@
       <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
+      <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
+        <v>300</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
@@ -4070,14 +4467,20 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,38 +4753,44 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
         <v>2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1400</v>
       </c>
       <c r="H89" s="3">
         <v>1100</v>
       </c>
       <c r="I89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
@@ -4370,14 +4803,20 @@
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4405,29 +4846,29 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4440,14 +4881,20 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,38 +4999,44 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F94" s="3">
         <v>3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-44600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-40100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-79100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-36900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-16700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>20800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4590,14 +5049,20 @@
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4628,20 +5095,20 @@
         <v>-400</v>
       </c>
       <c r="F96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-200</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-4600</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,38 +5301,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-22700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>21300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>36600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>10400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>70500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4860,14 +5351,20 @@
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,38 +5413,44 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-17000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-22100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-67300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-40800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-10800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>93300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4960,10 +5463,16 @@
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>WMPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,159 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>41912</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>41729</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F8" s="3">
         <v>7600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>6000</v>
       </c>
       <c r="K8" s="3">
         <v>6200</v>
       </c>
       <c r="L8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M8" s="3">
         <v>6200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O8" s="3">
         <v>6800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>-100</v>
@@ -1148,11 +1194,11 @@
       <c r="P15" s="3">
         <v>-100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
+      <c r="Q15" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-100</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1000</v>
       </c>
       <c r="S17" s="3">
         <v>1000</v>
       </c>
       <c r="T17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F18" s="3">
         <v>5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>6200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>5400</v>
       </c>
       <c r="L18" s="3">
         <v>5300</v>
       </c>
       <c r="M18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O18" s="3">
         <v>5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>2100</v>
       </c>
       <c r="T18" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1379,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-5300</v>
       </c>
       <c r="G20" s="3">
         <v>-4800</v>
       </c>
       <c r="H20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-500</v>
       </c>
       <c r="T20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,10 +1452,10 @@
         <v>400</v>
       </c>
       <c r="E21" s="3">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="F21" s="3">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="G21" s="3">
         <v>1600</v>
@@ -1390,23 +1464,23 @@
         <v>1300</v>
       </c>
       <c r="I21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1425,8 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,19 +1561,25 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>600</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1000</v>
       </c>
       <c r="G23" s="3">
         <v>1300</v>
@@ -1502,43 +1588,49 @@
         <v>1000</v>
       </c>
       <c r="I23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>900</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1500</v>
       </c>
       <c r="T23" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V23" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,55 +1638,61 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
-      </c>
-      <c r="R24" s="3">
-        <v>300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>500</v>
       </c>
       <c r="T24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>500</v>
+      </c>
+      <c r="V24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1747,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,55 +1762,61 @@
         <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="F26" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
         <v>1100</v>
       </c>
       <c r="H26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1000</v>
       </c>
       <c r="T26" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V26" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,55 +1824,61 @@
         <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="F27" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>1100</v>
       </c>
       <c r="H27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1000</v>
       </c>
       <c r="T27" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V27" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,64 +2119,76 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F32" s="3">
         <v>5400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5300</v>
       </c>
       <c r="G32" s="3">
         <v>4800</v>
       </c>
       <c r="H32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J32" s="3">
         <v>5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>500</v>
       </c>
       <c r="T32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>500</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,55 +2196,61 @@
         <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="F33" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>1100</v>
       </c>
       <c r="H33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
-      </c>
-      <c r="R33" s="3">
-        <v>600</v>
-      </c>
-      <c r="S33" s="3">
-        <v>1000</v>
       </c>
       <c r="T33" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V33" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2305,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,116 +2320,128 @@
         <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="F35" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>1100</v>
       </c>
       <c r="H35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
-      </c>
-      <c r="R35" s="3">
-        <v>600</v>
-      </c>
-      <c r="S35" s="3">
-        <v>1000</v>
       </c>
       <c r="T35" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V35" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>41912</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>41729</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,103 +2486,111 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F41" s="3">
         <v>4800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>11100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>23600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>17000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>8800</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="Q41" s="3">
         <v>8800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
+        <v>8800</v>
+      </c>
+      <c r="T41" s="3">
         <v>13300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>9300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F42" s="3">
         <v>9600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>15400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>14000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>32500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>48100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>58300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>123500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>162400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>175900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>68100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2730,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2792,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,38 +2854,44 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G47" s="3">
         <v>2000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2694,11 +2904,11 @@
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2706,31 +2916,37 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F48" s="3">
         <v>20100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>19700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>18300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>18500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>13400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>13400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>13500</v>
       </c>
       <c r="K48" s="3">
         <v>13400</v>
@@ -2739,13 +2955,13 @@
         <v>13500</v>
       </c>
       <c r="M48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="N48" s="3">
         <v>13500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
+      <c r="O48" s="3">
+        <v>13500</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
@@ -2762,47 +2978,53 @@
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E49" s="3">
         <v>5400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G49" s="3">
         <v>5500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>5600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,47 +3164,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F52" s="3">
         <v>8900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>9300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>7500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3700</v>
       </c>
       <c r="K52" s="3">
         <v>3600</v>
       </c>
       <c r="L52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N52" s="3">
         <v>4000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>830000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>847600</v>
+      </c>
+      <c r="F54" s="3">
         <v>862400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>870900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>851500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>880000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>869000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>834000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>822900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>822400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>817400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>746500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>323800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>315300</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="Q54" s="3">
         <v>315300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>315300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
+        <v>315300</v>
+      </c>
+      <c r="U54" s="3">
         <v>311500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3460,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,47 +3522,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F59" s="3">
         <v>14700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>13100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>12700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>18100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>12500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>8200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3310,8 +3584,14 @@
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,47 +3956,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>693600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>686800</v>
+      </c>
+      <c r="F66" s="3">
         <v>688300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>691700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>670300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>687600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>662700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>620100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>609900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>605500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>602400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>649300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,47 +4290,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>58800</v>
+      </c>
+      <c r="F72" s="3">
         <v>58600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>58900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>58200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>57600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>56900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>56300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>55100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>58500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>57800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>56800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>136400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>160700</v>
+      </c>
+      <c r="F76" s="3">
         <v>174000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>179200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>181200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>192300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>206300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>213900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>213000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>216900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>215000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>97200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>59200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>58400</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="Q76" s="3">
         <v>58400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
+        <v>58400</v>
+      </c>
+      <c r="T76" s="3">
         <v>60000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>59800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>58800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4662,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>41912</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>41729</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>41639</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,55 +4744,61 @@
         <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="F81" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>1100</v>
       </c>
       <c r="H81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
-      </c>
-      <c r="R81" s="3">
-        <v>600</v>
-      </c>
-      <c r="S81" s="3">
-        <v>1000</v>
       </c>
       <c r="T81" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V81" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,22 +4819,24 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -4455,11 +4853,11 @@
       <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
+        <v>300</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
@@ -4473,14 +4871,20 @@
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,35 +5202,35 @@
         <v>400</v>
       </c>
       <c r="E89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>400</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1400</v>
       </c>
       <c r="J89" s="3">
         <v>1100</v>
       </c>
       <c r="K89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
@@ -4809,14 +5243,20 @@
       <c r="R89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,44 +5277,46 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4887,14 +5329,20 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,44 +5459,50 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F94" s="3">
         <v>12300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-16900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-44600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-40100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-79100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-36900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-16700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>20800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5055,14 +5515,20 @@
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,13 +5549,15 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E96" s="3">
         <v>-400</v>
@@ -5101,20 +5569,20 @@
         <v>-400</v>
       </c>
       <c r="H96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J96" s="3">
         <v>-200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-4600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,44 +5793,50 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-11900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>16600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-22700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>21300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>36600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>10400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>5200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>70500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
@@ -5357,14 +5849,20 @@
       <c r="R100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,44 +5917,50 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>900</v>
+      </c>
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-17000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-22100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-67300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-40800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-10800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>93300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
@@ -5469,10 +5973,16 @@
       <c r="R102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
